--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.75729193069225</v>
+        <v>95.48671360799914</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.4450042940592</v>
+        <v>130.6491341349057</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.33586704216255</v>
+        <v>118.1801641403164</v>
       </c>
       <c r="AD2" t="n">
-        <v>69757.29193069224</v>
+        <v>95486.71360799913</v>
       </c>
       <c r="AE2" t="n">
-        <v>95445.0042940592</v>
+        <v>130649.1341349057</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.618376573186672e-06</v>
+        <v>1.098314239968071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.989583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86335.86704216254</v>
+        <v>118180.1641403164</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.79374241922881</v>
+        <v>83.06047801019557</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.02190099301414</v>
+        <v>113.6470103831754</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.43033710879423</v>
+        <v>102.8006992168152</v>
       </c>
       <c r="AD3" t="n">
-        <v>65793.7424192288</v>
+        <v>83060.47801019557</v>
       </c>
       <c r="AE3" t="n">
-        <v>90021.90099301415</v>
+        <v>113647.0103831754</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.065658227918209e-06</v>
+        <v>1.162797244444003e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>81430.33710879424</v>
+        <v>102800.6992168152</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.90509642695353</v>
+        <v>91.65469219093877</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4884575109465</v>
+        <v>125.4059933752329</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.707102969581</v>
+        <v>113.4374213759509</v>
       </c>
       <c r="AD2" t="n">
-        <v>74905.09642695353</v>
+        <v>91654.69219093877</v>
       </c>
       <c r="AE2" t="n">
-        <v>102488.4575109465</v>
+        <v>125405.9933752329</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.834622034628797e-06</v>
+        <v>1.146959192841953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>92707.102969581</v>
+        <v>113437.4213759509</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.21232732421701</v>
+        <v>91.29391628008251</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.59462732668142</v>
+        <v>124.9123638576897</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.94840324500294</v>
+        <v>112.9909031667485</v>
       </c>
       <c r="AD3" t="n">
-        <v>66212.32732421701</v>
+        <v>91293.91628008251</v>
       </c>
       <c r="AE3" t="n">
-        <v>90594.62732668142</v>
+        <v>124912.3638576897</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.874916446218078e-06</v>
+        <v>1.152858143115267e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.991666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81948.40324500293</v>
+        <v>112990.9031667485</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.30923216938154</v>
+        <v>117.6110983721008</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0380520837751</v>
+        <v>160.9206934281034</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7228414989774</v>
+        <v>145.5626483009813</v>
       </c>
       <c r="AD2" t="n">
-        <v>94309.23216938155</v>
+        <v>117611.0983721008</v>
       </c>
       <c r="AE2" t="n">
-        <v>129038.0520837751</v>
+        <v>160920.6934281034</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.304712643790074e-06</v>
+        <v>9.754168669003584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.564583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116722.8414989774</v>
+        <v>145562.6483009813</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.50769821197211</v>
+        <v>102.4867538926339</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.41769620878</v>
+        <v>140.2268980723202</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.16590204432488</v>
+        <v>126.8438397300232</v>
       </c>
       <c r="AD2" t="n">
-        <v>78507.69821197211</v>
+        <v>102486.7538926339</v>
       </c>
       <c r="AE2" t="n">
-        <v>107417.69620878</v>
+        <v>140226.8980723202</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.144576069020605e-06</v>
+        <v>1.079755472016753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.697916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97165.90204432487</v>
+        <v>126843.8397300232</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4906613243541</v>
+        <v>144.6405670183467</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6511737954119</v>
+        <v>197.9036048858759</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.700605629724</v>
+        <v>179.015962595078</v>
       </c>
       <c r="AD2" t="n">
-        <v>114490.6613243541</v>
+        <v>144640.5670183467</v>
       </c>
       <c r="AE2" t="n">
-        <v>156651.1737954119</v>
+        <v>197903.6048858759</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411492863487206e-06</v>
+        <v>8.552799480565845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>141700.605629724</v>
+        <v>179015.962595078</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.17489210669663</v>
+        <v>83.12325741157706</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.54340681054482</v>
+        <v>113.7329079297772</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.90207114303796</v>
+        <v>102.8783988221274</v>
       </c>
       <c r="AD2" t="n">
-        <v>66174.89210669663</v>
+        <v>83123.25741157705</v>
       </c>
       <c r="AE2" t="n">
-        <v>90543.40681054482</v>
+        <v>113732.9079297772</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89750191269651e-06</v>
+        <v>1.151365975514875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.945833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81902.07114303796</v>
+        <v>102878.3988221274</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.96758202010557</v>
+        <v>82.91594732498599</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.25975600419554</v>
+        <v>113.4492571234279</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.64549157154015</v>
+        <v>102.6218192506296</v>
       </c>
       <c r="AD3" t="n">
-        <v>65967.58202010556</v>
+        <v>82915.94732498599</v>
       </c>
       <c r="AE3" t="n">
-        <v>90259.75600419554</v>
+        <v>113449.2571234279</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.939976878006722e-06</v>
+        <v>1.157558342469637e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>81645.49157154014</v>
+        <v>102621.8192506296</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.0671530296854</v>
+        <v>163.8086009538601</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.436593400493</v>
+        <v>224.1301545504076</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9296623812773</v>
+        <v>202.7394871688288</v>
       </c>
       <c r="AD2" t="n">
-        <v>134067.1530296853</v>
+        <v>163808.6009538601</v>
       </c>
       <c r="AE2" t="n">
-        <v>183436.593400493</v>
+        <v>224130.1545504076</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806684237356022e-06</v>
+        <v>7.701437227210445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.758333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>165929.6623812773</v>
+        <v>202739.4871688288</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.6965692720139</v>
+        <v>92.0777435699389</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.5713855748751</v>
+        <v>125.9848309356902</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.68667789898772</v>
+        <v>113.9610154920419</v>
       </c>
       <c r="AD2" t="n">
-        <v>75696.5692720139</v>
+        <v>92077.7435699389</v>
       </c>
       <c r="AE2" t="n">
-        <v>103571.3855748751</v>
+        <v>125984.8309356902</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.598622517475725e-06</v>
+        <v>1.128276295262865e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>93686.67789898772</v>
+        <v>113961.0154920419</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.58117029723289</v>
+        <v>91.9623445951579</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.4134916065364</v>
+        <v>125.8269369673515</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.5438531093816</v>
+        <v>113.8181907024358</v>
       </c>
       <c r="AD3" t="n">
-        <v>75581.17029723289</v>
+        <v>91962.34459515791</v>
       </c>
       <c r="AE3" t="n">
-        <v>103413.4916065364</v>
+        <v>125826.9369673515</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.631119849243357e-06</v>
+        <v>1.133101639462868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.245833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>93543.8531093816</v>
+        <v>113818.1907024358</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.95535404601539</v>
+        <v>91.58711494328797</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5572222025565</v>
+        <v>125.3135312036994</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.76930485553567</v>
+        <v>113.353783664297</v>
       </c>
       <c r="AD2" t="n">
-        <v>74955.35404601539</v>
+        <v>91587.11494328798</v>
       </c>
       <c r="AE2" t="n">
-        <v>102557.2222025565</v>
+        <v>125313.5312036994</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.779237238254489e-06</v>
+        <v>1.143892089045311e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.079166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92769.30485553567</v>
+        <v>113353.783664297</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.81599106653358</v>
+        <v>91.4477519638062</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.3665396257689</v>
+        <v>125.1228486269118</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.59682075625193</v>
+        <v>113.1812995650132</v>
       </c>
       <c r="AD3" t="n">
-        <v>74815.99106653358</v>
+        <v>91447.75196380619</v>
       </c>
       <c r="AE3" t="n">
-        <v>102366.5396257689</v>
+        <v>125122.8486269118</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.815191568054106e-06</v>
+        <v>1.149178966429955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.060416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>92596.82075625192</v>
+        <v>113181.2995650132</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.82847330621399</v>
+        <v>83.99246372287213</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.43766544169156</v>
+        <v>114.9221943515666</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.7109829855282</v>
+        <v>103.9541814169956</v>
       </c>
       <c r="AD2" t="n">
-        <v>66828.473306214</v>
+        <v>83992.46372287213</v>
       </c>
       <c r="AE2" t="n">
-        <v>91437.66544169157</v>
+        <v>114922.1943515666</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89441322465228e-06</v>
+        <v>1.1421420009683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.88125</v>
       </c>
       <c r="AH2" t="n">
-        <v>82710.9829855282</v>
+        <v>103954.1814169956</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.75823944644759</v>
+        <v>82.92222986310573</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.97332425937432</v>
+        <v>113.4578531692493</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.38639647043507</v>
+        <v>102.6295949019025</v>
       </c>
       <c r="AD3" t="n">
-        <v>65758.23944644759</v>
+        <v>82922.22986310572</v>
       </c>
       <c r="AE3" t="n">
-        <v>89973.32425937432</v>
+        <v>113457.8531692493</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.033964275228697e-06</v>
+        <v>1.162331863293324e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>81386.39647043508</v>
+        <v>102629.5949019025</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.25625872965733</v>
+        <v>93.53321805062662</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.7054214994644</v>
+        <v>127.9762753311684</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.61704443007312</v>
+        <v>115.7623992294261</v>
       </c>
       <c r="AD2" t="n">
-        <v>77256.25872965733</v>
+        <v>93533.21805062662</v>
       </c>
       <c r="AE2" t="n">
-        <v>105705.4214994644</v>
+        <v>127976.2753311684</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.325923693070901e-06</v>
+        <v>1.100122689347766e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.524999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>95617.04443007312</v>
+        <v>115762.3992294261</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.88411568382443</v>
+        <v>106.6005891765361</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3516566027634</v>
+        <v>145.8556289973562</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4837090252745</v>
+        <v>131.9353724755491</v>
       </c>
       <c r="AD2" t="n">
-        <v>90884.11568382444</v>
+        <v>106600.5891765361</v>
       </c>
       <c r="AE2" t="n">
-        <v>124351.6566027634</v>
+        <v>145855.6289973562</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.634738660348477e-06</v>
+        <v>1.017600884998938e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.204166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>112483.7090252745</v>
+        <v>131935.3724755491</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.9123821013944</v>
+        <v>129.8319110256477</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.2822378324801</v>
+        <v>177.6417484448813</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.3212663621981</v>
+        <v>160.6878692951113</v>
       </c>
       <c r="AD2" t="n">
-        <v>106912.3821013944</v>
+        <v>129831.9110256477</v>
       </c>
       <c r="AE2" t="n">
-        <v>146282.2378324801</v>
+        <v>177641.7484448813</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.910210209155447e-06</v>
+        <v>9.234586870748529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132321.2663621981</v>
+        <v>160687.8692951113</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9630365708476</v>
+        <v>207.4218173666706</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9191689929882</v>
+        <v>283.8036813256984</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.5942518119806</v>
+        <v>256.7178563010256</v>
       </c>
       <c r="AD2" t="n">
-        <v>170963.0365708476</v>
+        <v>207421.8173666706</v>
       </c>
       <c r="AE2" t="n">
-        <v>233919.1689929882</v>
+        <v>283803.6813256984</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015236078560308e-06</v>
+        <v>6.543534405974203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.545833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>211594.2518119806</v>
+        <v>256717.8563010256</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.4079992090707</v>
+        <v>91.91713914149229</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1765512839437</v>
+        <v>125.7650848713223</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.3295260386293</v>
+        <v>113.7622416836417</v>
       </c>
       <c r="AD2" t="n">
-        <v>75407.99920907069</v>
+        <v>91917.13914149228</v>
       </c>
       <c r="AE2" t="n">
-        <v>103176.5512839437</v>
+        <v>125765.0848713223</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.680715556017584e-06</v>
+        <v>1.134734172934717e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.172916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93329.52603862929</v>
+        <v>113762.2416836417</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.27722174095447</v>
+        <v>91.78636167337606</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9976157825725</v>
+        <v>125.5861493699511</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.16766789037132</v>
+        <v>113.6003835353837</v>
       </c>
       <c r="AD3" t="n">
-        <v>75277.22174095447</v>
+        <v>91786.36167337606</v>
       </c>
       <c r="AE3" t="n">
-        <v>102997.6157825725</v>
+        <v>125586.1493699511</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.71533624636564e-06</v>
+        <v>1.139848967271523e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.154166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93167.66789037132</v>
+        <v>113600.3835353837</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.19464853380185</v>
+        <v>83.2526142152149</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.57043842570225</v>
+        <v>113.9098996153338</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.92652289878384</v>
+        <v>103.0384986696239</v>
       </c>
       <c r="AD2" t="n">
-        <v>66194.64853380185</v>
+        <v>83252.61421521491</v>
       </c>
       <c r="AE2" t="n">
-        <v>90570.43842570225</v>
+        <v>113909.8996153338</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.931015839940995e-06</v>
+        <v>1.151717546522365e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81926.52289878385</v>
+        <v>103038.498669624</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.91955140301079</v>
+        <v>82.97751708442385</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.19403839492523</v>
+        <v>113.5334995845568</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.58604595866332</v>
+        <v>102.6980217295034</v>
       </c>
       <c r="AD3" t="n">
-        <v>65919.55140301079</v>
+        <v>82977.51708442385</v>
       </c>
       <c r="AE3" t="n">
-        <v>90194.03839492523</v>
+        <v>113533.4995845568</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.977128983320411e-06</v>
+        <v>1.158413954325249e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.872916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81586.04595866332</v>
+        <v>102698.0217295034</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.4068102365802</v>
+        <v>297.0458658278189</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.5129125836689</v>
+        <v>406.4312583643372</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.2057153126412</v>
+        <v>367.6420294958978</v>
       </c>
       <c r="AD2" t="n">
-        <v>247406.8102365802</v>
+        <v>297045.8658278189</v>
       </c>
       <c r="AE2" t="n">
-        <v>338512.9125836689</v>
+        <v>406431.2583643371</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978828857313217e-06</v>
+        <v>4.965530229372132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>306205.7153126412</v>
+        <v>367642.0294958978</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.52634744851628</v>
+        <v>104.2686295213919</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.1797011507374</v>
+        <v>142.6649389183904</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.66430511112101</v>
+        <v>129.0491973795571</v>
       </c>
       <c r="AD2" t="n">
-        <v>80526.34744851627</v>
+        <v>104268.6295213919</v>
       </c>
       <c r="AE2" t="n">
-        <v>110179.7011507374</v>
+        <v>142664.9389183904</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.899740811406158e-06</v>
+        <v>1.050076122904347e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.93125</v>
       </c>
       <c r="AH2" t="n">
-        <v>99664.30511112101</v>
+        <v>129049.1973795571</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.34954413601314</v>
+        <v>92.5967350960547</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4648145910163</v>
+        <v>126.6949380380117</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.49483930376419</v>
+        <v>114.6033509691596</v>
       </c>
       <c r="AD2" t="n">
-        <v>76349.54413601314</v>
+        <v>92596.7350960547</v>
       </c>
       <c r="AE2" t="n">
-        <v>104464.8145910163</v>
+        <v>126694.9380380117</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.471063187408086e-06</v>
+        <v>1.115363012819078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94494.83930376419</v>
+        <v>114603.3509691597</v>
       </c>
     </row>
   </sheetData>
